--- a/01_studies/01_Laborstudie ProVisioNET/R script/data/coding_reactions_CW_ohne_Abstufung.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/data/coding_reactions_CW_ohne_Abstufung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\01_Laborstudie ProVisioNET\Coding_data\Verhaltenskodierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9FCCFA3E-A168-4B29-A056-8ACBD6123BD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BFB80CC7-C093-4EC1-BB21-F78E5DAD7C21}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{9FCCFA3E-A168-4B29-A056-8ACBD6123BD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A924394C-2D48-40D9-930F-59F4EF643F3E}"/>
   <bookViews>
     <workbookView xWindow="1716" yWindow="7896" windowWidth="20400" windowHeight="8196" xr2:uid="{8D98E347-4FD3-44E1-B31C-B9B24879F4FD}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A73361D-5877-44C6-BAB4-F5E506BDCD04}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="14">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="14">
         <v>1</v>
